--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BD330-0821-42FC-8835-1C1FAAE27D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A30AE23-28A1-4FA8-AABE-1B93978AA837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="172">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1277,6 +1277,39 @@
   </si>
   <si>
     <t>\I: New Fuel Supply</t>
+  </si>
+  <si>
+    <t>ELE_NEW_COCONUT</t>
+  </si>
+  <si>
+    <t>Coconut Oil</t>
+  </si>
+  <si>
+    <t>Canola oil</t>
+  </si>
+  <si>
+    <t>ELE_NEW_CANOLA</t>
+  </si>
+  <si>
+    <t>IMP_COCONUT</t>
+  </si>
+  <si>
+    <t>MIN_CANOLA</t>
+  </si>
+  <si>
+    <t>Coconut import</t>
+  </si>
+  <si>
+    <t>Canola oil mining</t>
+  </si>
+  <si>
+    <t>COCONUT</t>
+  </si>
+  <si>
+    <t>CANOLA</t>
+  </si>
+  <si>
+    <t>Coconut oil</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1527,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,6 +1655,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2068,33 +2110,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X104"/>
+  <dimension ref="B1:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" customWidth="1"/>
+    <col min="13" max="13" width="13.1328125" customWidth="1"/>
+    <col min="14" max="14" width="10.46484375" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
     <col min="16" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2102,7 +2144,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2113,7 +2155,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2122,7 +2164,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2140,7 +2182,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2226,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2233,21 +2275,21 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="str">
-        <f>C63</f>
+        <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
       <c r="C7" s="21" t="str">
-        <f>D63</f>
+        <f>D66</f>
         <v>Brown Coal Pulverized</v>
       </c>
       <c r="D7" s="28" t="str">
-        <f>M49</f>
+        <f>M51</f>
         <v>BC</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>$M$53</f>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F7" s="21">
@@ -2282,9 +2324,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="0">C64</f>
+        <f t="shared" ref="B8:C8" si="0">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
@@ -2292,11 +2334,11 @@
         <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D8" s="30" t="str">
-        <f>M49</f>
+        <f>M51</f>
         <v>BC</v>
       </c>
       <c r="E8" s="30" t="str">
-        <f t="shared" ref="E8:E26" si="1">$M$53</f>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F8" s="58">
@@ -2315,7 +2357,7 @@
         <v>14600</v>
       </c>
       <c r="K8" s="57">
-        <f t="shared" ref="K8:K26" si="2">J8</f>
+        <f t="shared" ref="K8:K28" si="1">J8</f>
         <v>14600</v>
       </c>
       <c r="L8" s="40">
@@ -2331,21 +2373,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="3">C65</f>
+        <f t="shared" ref="B9:C9" si="2">C68</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Brown Coal Fluidzed Bed</v>
       </c>
       <c r="D9" s="28" t="str">
-        <f>M49</f>
+        <f>M51</f>
         <v>BC</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F9" s="21">
@@ -2364,7 +2406,7 @@
         <v>9200</v>
       </c>
       <c r="K9" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9200</v>
       </c>
       <c r="L9" s="36">
@@ -2380,21 +2422,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="4">C66</f>
+        <f t="shared" ref="B10:C10" si="3">C69</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Hard Coal Pulverized</v>
       </c>
       <c r="D10" s="30" t="str">
-        <f>M48</f>
+        <f>M50</f>
         <v>HC</v>
       </c>
       <c r="E10" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F10" s="37">
@@ -2413,7 +2455,7 @@
         <v>7400</v>
       </c>
       <c r="K10" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7400</v>
       </c>
       <c r="L10" s="40">
@@ -2429,21 +2471,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="5">C67</f>
+        <f t="shared" ref="B11:C11" si="4">C70</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Hard Coal Internal Gasification Combined Cycle</v>
       </c>
       <c r="D11" s="28" t="str">
-        <f>M48</f>
+        <f>M50</f>
         <v>HC</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F11" s="21">
@@ -2462,7 +2504,7 @@
         <v>10100</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10100</v>
       </c>
       <c r="L11" s="36">
@@ -2478,21 +2520,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="37" t="str">
-        <f t="shared" ref="B12:C26" si="6">C68</f>
+        <f>C71</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D71</f>
         <v>Hard Coal Internal Gasification Combined Cycle + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D12" s="30" t="str">
-        <f>M48</f>
+        <f>M50</f>
         <v>HC</v>
       </c>
       <c r="E12" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F12" s="58">
@@ -2511,7 +2553,7 @@
         <v>14600</v>
       </c>
       <c r="K12" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14600</v>
       </c>
       <c r="L12" s="40">
@@ -2527,21 +2569,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C72</f>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D72</f>
         <v>Natural Gas Combined Cycle Gas Turbine</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f>M50</f>
+        <f>M52</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E13" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F13" s="21">
@@ -2560,7 +2602,7 @@
         <v>3300</v>
       </c>
       <c r="K13" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3300</v>
       </c>
       <c r="L13" s="36">
@@ -2576,21 +2618,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C73</f>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D73</f>
         <v>Natural Gas Combined Cycle Gas Turbine + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D14" s="30" t="str">
-        <f>M50</f>
+        <f>M52</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E14" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F14" s="58">
@@ -2609,7 +2651,7 @@
         <v>6000</v>
       </c>
       <c r="K14" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="L14" s="37">
@@ -2625,21 +2667,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C74</f>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D74</f>
         <v>Natural Gas Open Cycle Gas Turbine</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>M50</f>
+        <f>M52</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F15" s="21">
@@ -2658,7 +2700,7 @@
         <v>2200</v>
       </c>
       <c r="K15" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="L15" s="21">
@@ -2674,21 +2716,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C75</f>
         <v>ELE_NEW_NUC_PWR</v>
       </c>
       <c r="C16" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D75</f>
         <v>Nuclear Pressurized Water Reactor</v>
       </c>
       <c r="D16" s="37" t="str">
-        <f>C49</f>
+        <f>C51</f>
         <v>URAN</v>
       </c>
       <c r="E16" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F16" s="60">
@@ -2707,7 +2749,7 @@
         <v>20200</v>
       </c>
       <c r="K16" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20200</v>
       </c>
       <c r="L16" s="37">
@@ -2723,21 +2765,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C76</f>
         <v>ELE_NEW_NUC_SMR</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D76</f>
         <v>Nuclear Small Modular Reactor</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>C49</f>
+        <f>C51</f>
         <v>URAN</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F17" s="60">
@@ -2771,21 +2813,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C77</f>
         <v>ELE_NEW_WIND-ON</v>
       </c>
       <c r="C18" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D77</f>
         <v>Wind Onshore</v>
       </c>
       <c r="D18" s="30" t="str">
-        <f>M51</f>
+        <f>M53</f>
         <v>WIND-ON</v>
       </c>
       <c r="E18" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F18" s="37">
@@ -2804,7 +2846,7 @@
         <v>5800</v>
       </c>
       <c r="K18" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="L18" s="37">
@@ -2820,21 +2862,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C78</f>
         <v>ELE_NEW_WIND-OFF</v>
       </c>
       <c r="C19" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D78</f>
         <v>Wind Offshore</v>
       </c>
       <c r="D19" s="21" t="str">
-        <f>C48</f>
+        <f>C50</f>
         <v>WIND-OFF</v>
       </c>
       <c r="E19" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F19" s="58">
@@ -2853,7 +2895,7 @@
         <v>9400</v>
       </c>
       <c r="K19" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9400</v>
       </c>
       <c r="L19" s="21">
@@ -2869,21 +2911,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C79</f>
         <v>ELE_NEW_GEO</v>
       </c>
       <c r="C20" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D79</f>
         <v>Geothermal</v>
       </c>
       <c r="D20" s="37" t="str">
-        <f>C50</f>
+        <f>C52</f>
         <v>GEO</v>
       </c>
       <c r="E20" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F20" s="37">
@@ -2902,7 +2944,7 @@
         <v>31500</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31500</v>
       </c>
       <c r="L20" s="37">
@@ -2918,21 +2960,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C80</f>
         <v>ELE_NEW_PV_GRND</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D80</f>
         <v>Photovoltaics Ground</v>
       </c>
       <c r="D21" s="28" t="str">
-        <f>M52</f>
+        <f>M54</f>
         <v>SOLAR</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F21" s="21">
@@ -2951,7 +2993,7 @@
         <v>3100</v>
       </c>
       <c r="K21" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3100</v>
       </c>
       <c r="L21" s="21">
@@ -2967,21 +3009,21 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C81</f>
         <v>ELE_NEW_PV_ROOF</v>
       </c>
       <c r="C22" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D81</f>
         <v>Photovoltaics Roof</v>
       </c>
       <c r="D22" s="30" t="str">
-        <f>M52</f>
+        <f>M54</f>
         <v>SOLAR</v>
       </c>
       <c r="E22" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F22" s="37">
@@ -3000,7 +3042,7 @@
         <v>4000</v>
       </c>
       <c r="K22" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="L22" s="37">
@@ -3016,21 +3058,21 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C82</f>
         <v>ELE_NEW_BIOG-AGR</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D82</f>
         <v>Biogas Agricultural</v>
       </c>
       <c r="D23" s="21" t="str">
-        <f>C51</f>
+        <f>C53</f>
         <v>BIOG-AGR</v>
       </c>
       <c r="E23" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F23" s="21">
@@ -3049,7 +3091,7 @@
         <v>12100</v>
       </c>
       <c r="K23" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12100</v>
       </c>
       <c r="L23" s="21">
@@ -3065,21 +3107,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>C83</f>
         <v>ELE_NEW_BIOG_WWTP</v>
       </c>
       <c r="C24" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f>D83</f>
         <v>Biogas Waste Water Treatment Plant</v>
       </c>
       <c r="D24" s="37" t="str">
-        <f t="shared" ref="D24:D26" si="7">C52</f>
+        <f>C54</f>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E24" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F24" s="37">
@@ -3098,7 +3140,7 @@
         <v>14100</v>
       </c>
       <c r="K24" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14100</v>
       </c>
       <c r="L24" s="37">
@@ -3114,21 +3156,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>C84</f>
         <v>ELE_NEW_BIOG_LFILL</v>
       </c>
       <c r="C25" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f>D84</f>
         <v>Biogas Landfills</v>
       </c>
       <c r="D25" s="21" t="str">
-        <f t="shared" si="7"/>
+        <f>C55</f>
         <v>BIOG_LFILL</v>
       </c>
       <c r="E25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F25" s="21">
@@ -3147,7 +3189,7 @@
         <v>7200</v>
       </c>
       <c r="K25" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7200</v>
       </c>
       <c r="L25" s="21">
@@ -3163,21 +3205,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B26:C28" si="5">C85</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Biomass</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D26:D28" si="6">C56</f>
         <v>BIOM</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F26" s="3">
@@ -3196,7 +3238,7 @@
         <v>11500</v>
       </c>
       <c r="K26" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="L26" s="3">
@@ -3212,418 +3254,482 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" t="str">
+        <f t="shared" si="5"/>
+        <v>ELE_NEW_COCONUT</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="5"/>
+        <v>Coconut Oil</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="6"/>
+        <v>COCONUT</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ref="E27:E28" si="7">$M$55</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F27" s="68">
+        <v>2030</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="H27">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I27" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="59">
+        <v>11500</v>
+      </c>
+      <c r="K27" s="59">
+        <f t="shared" si="1"/>
+        <v>11500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>540</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="68">
+        <v>30</v>
+      </c>
+      <c r="O27" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" t="str">
+        <f t="shared" si="5"/>
+        <v>ELE_NEW_CANOLA</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="5"/>
+        <v>Canola oil</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="6"/>
+        <v>CANOLA</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="7"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F28" s="68">
+        <v>2030</v>
+      </c>
+      <c r="G28" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="H28">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I28" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="J28" s="59">
+        <v>11500</v>
+      </c>
+      <c r="K28" s="59">
+        <f t="shared" si="1"/>
+        <v>11500</v>
+      </c>
+      <c r="L28" s="3">
+        <v>540</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="68">
+        <v>30</v>
+      </c>
+      <c r="O28" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="31" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="47" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+    </row>
+    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C33" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D33" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E33" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F33" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G33" s="50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="2:24" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="str">
-        <f>C84</f>
+    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="51" t="str">
+        <f>C89</f>
         <v>MIN_WIND-OFF</v>
       </c>
-      <c r="C34" s="51" t="str">
-        <f>D84</f>
+      <c r="C35" s="51" t="str">
+        <f>D89</f>
         <v>Offshore Wind</v>
       </c>
-      <c r="D34" s="52" t="str">
-        <f>C48</f>
+      <c r="D35" s="52" t="str">
+        <f>C50</f>
         <v>WIND-OFF</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54">
+      <c r="E35" s="53"/>
+      <c r="F35" s="54">
         <v>1E-3</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="str">
-        <f t="shared" ref="B35:C39" si="8">C85</f>
+      <c r="G35" s="53"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="55" t="str">
+        <f t="shared" ref="B36:C40" si="8">C90</f>
         <v>IMP_URAN</v>
       </c>
-      <c r="C35" s="55" t="str">
+      <c r="C36" s="55" t="str">
         <f t="shared" si="8"/>
         <v>Nuclear Fuel Import</v>
       </c>
-      <c r="D35" s="37" t="str">
-        <f>C49</f>
+      <c r="D36" s="37" t="str">
+        <f>C51</f>
         <v>URAN</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37">
+      <c r="E36" s="37"/>
+      <c r="F36" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="str">
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="51" t="str">
         <f t="shared" si="8"/>
         <v>MIN_GEO</v>
       </c>
-      <c r="C36" s="51" t="str">
+      <c r="C37" s="51" t="str">
         <f t="shared" si="8"/>
         <v>Geothermal Mining</v>
       </c>
-      <c r="D36" s="21" t="str">
-        <f t="shared" ref="D36:D40" si="9">C50</f>
+      <c r="D37" s="21" t="str">
+        <f t="shared" ref="D37:D43" si="9">C52</f>
         <v>GEO</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21">
+      <c r="E37" s="21"/>
+      <c r="F37" s="21">
         <v>1E-3</v>
       </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="str">
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="55" t="str">
         <f t="shared" si="8"/>
         <v>MIN_BIOG-AGR</v>
       </c>
-      <c r="C37" s="55" t="str">
+      <c r="C38" s="55" t="str">
         <f t="shared" si="8"/>
         <v>Biogas Supply</v>
       </c>
-      <c r="D37" s="37" t="str">
+      <c r="D38" s="37" t="str">
         <f t="shared" si="9"/>
         <v>BIOG-AGR</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37">
+      <c r="E38" s="37"/>
+      <c r="F38" s="37">
         <v>116.11</v>
       </c>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="str">
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="51" t="str">
         <f t="shared" si="8"/>
         <v>MIN_BIOG-WWTP</v>
       </c>
-      <c r="C38" s="51" t="str">
+      <c r="C39" s="51" t="str">
         <f t="shared" si="8"/>
         <v>Biogas Supply</v>
       </c>
-      <c r="D38" s="21" t="str">
+      <c r="D39" s="21" t="str">
         <f t="shared" si="9"/>
         <v>BIOG-WWTP</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21">
         <v>104.5</v>
       </c>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55" t="str">
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="55" t="str">
         <f t="shared" si="8"/>
         <v>MIN_BIOG_LFILL</v>
       </c>
-      <c r="C39" s="55" t="str">
+      <c r="C40" s="55" t="str">
         <f t="shared" si="8"/>
         <v>Biogas Supply</v>
       </c>
-      <c r="D39" s="37" t="str">
+      <c r="D40" s="37" t="str">
         <f t="shared" si="9"/>
         <v>BIOG_LFILL</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37">
+      <c r="E40" s="37"/>
+      <c r="F40" s="37">
         <v>127.7</v>
       </c>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="56" t="str">
-        <f>C90</f>
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="56" t="str">
+        <f>C95</f>
         <v>MIN_BIOM</v>
       </c>
-      <c r="C40" s="56" t="str">
-        <f>D90</f>
+      <c r="C41" s="56" t="str">
+        <f>D95</f>
         <v>Biomass Supply</v>
       </c>
-      <c r="D40" s="45" t="str">
+      <c r="D41" s="45" t="str">
         <f t="shared" si="9"/>
         <v>BIOM</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45">
-        <v>25</v>
-      </c>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="43" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45">
+        <v>25</v>
+      </c>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B42" t="str">
+        <f>C96</f>
+        <v>MIN_CANOLA</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:C43" si="10">D96</f>
+        <v>Canola oil mining</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" t="str">
+        <f>C97</f>
+        <v>IMP_COCONUT</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="10"/>
+        <v>Coconut import</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65">
+        <v>50</v>
+      </c>
+      <c r="G43" s="65"/>
+    </row>
+    <row r="45" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="L43" s="9" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="L45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-    </row>
-    <row r="45" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18" t="s">
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="L45" s="18" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="L47" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="2:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+    </row>
+    <row r="48" spans="2:24" ht="39.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="L48" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="27" t="s">
+      <c r="M48" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N46" s="27" t="s">
+      <c r="N48" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="O48" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="27" t="s">
+      <c r="P48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q48" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="R48" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="S48" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:24" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+    <row r="49" spans="2:19" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="R49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="S49" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="L48" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-    </row>
-    <row r="49" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="L49" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O49" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-    </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>25</v>
@@ -3636,10 +3742,10 @@
         <v>24</v>
       </c>
       <c r="M50" s="28" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N50" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O50" s="29" t="s">
         <v>25</v>
@@ -3649,15 +3755,15 @@
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>25</v>
@@ -3670,12 +3776,12 @@
         <v>24</v>
       </c>
       <c r="M51" s="30" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O51" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="O51" s="31" t="s">
         <v>25</v>
       </c>
       <c r="P51" s="30"/>
@@ -3683,15 +3789,15 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>25</v>
@@ -3704,12 +3810,12 @@
         <v>24</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="O52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O52" s="29" t="s">
         <v>25</v>
       </c>
       <c r="P52" s="28"/>
@@ -3717,15 +3823,15 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>25</v>
@@ -3734,884 +3840,1070 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-      <c r="L53" s="33" t="s">
+      <c r="L53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="33" t="s">
+      <c r="M53" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O53" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+    </row>
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="L54" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="O54" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+    </row>
+    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="L55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="N53" s="33" t="s">
+      <c r="N55" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="O53" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33" t="s">
+      <c r="O55" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="R53" s="33" t="s">
+      <c r="R55" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="S53" s="33" t="s">
+      <c r="S55" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22" t="s">
+    <row r="56" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D56" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-    </row>
-    <row r="57" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
+      <c r="E56" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B58" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="B60" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="60" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="5" t="s">
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I64" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+    <row r="65" spans="2:9" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C66" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D66" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="21" t="s">
+      <c r="E66" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G66" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-    </row>
-    <row r="64" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="37" t="s">
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C67" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D67" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="37" t="s">
+      <c r="E67" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G64" s="37" t="s">
+      <c r="G67" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-    </row>
-    <row r="65" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+    </row>
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D68" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="21" t="s">
+      <c r="E68" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G68" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-    </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="37" t="s">
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C69" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D69" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="37" t="s">
+      <c r="E69" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G69" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-    </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+    </row>
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C70" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D70" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="21" t="s">
+      <c r="E70" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G70" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-    </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="37" t="s">
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C71" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D71" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="37" t="s">
+      <c r="E71" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G71" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-    </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="21" t="s">
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+    </row>
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C72" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D72" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="21" t="s">
+      <c r="E72" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G72" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-    </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="37" t="s">
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C73" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D73" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="37" t="s">
+      <c r="E73" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G73" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-    </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="21" t="s">
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+    </row>
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C74" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D74" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="21" t="s">
+      <c r="E74" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G74" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-    </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="37" t="s">
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C75" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D75" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="37" t="s">
+      <c r="E75" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G72" s="37" t="s">
+      <c r="G75" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-    </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="21" t="s">
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C76" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D76" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="21" t="s">
+      <c r="E76" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G76" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="37" t="s">
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C77" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D77" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="37" t="s">
+      <c r="E77" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="37" t="s">
+      <c r="G77" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-    </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+    </row>
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C78" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D78" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="21" t="s">
+      <c r="E78" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G78" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="37" t="s">
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C79" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D79" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="37" t="s">
+      <c r="E79" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G79" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="21" t="s">
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+    </row>
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D80" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E77" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="21" t="s">
+      <c r="E80" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G80" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="37" t="s">
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C81" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D81" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="37" t="s">
+      <c r="E81" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G81" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-    </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="21" t="s">
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+    </row>
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D82" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="21" t="s">
+      <c r="E82" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G82" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="37" t="s">
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="C83" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="D83" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E80" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="37" t="s">
+      <c r="E83" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="37" t="s">
+      <c r="G83" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-    </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+    </row>
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D84" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E81" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="21" t="s">
+      <c r="E84" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-    </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-    </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-    </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="21"/>
       <c r="G84" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="37"/>
+      <c r="F85" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G85" s="37" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-    </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+    </row>
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E87" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="37"/>
+      <c r="F87" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G87" s="37" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="21" t="s">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+    </row>
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C89" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+    </row>
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+    </row>
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+    </row>
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D93" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21" t="s">
+      <c r="E93" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-    </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="37" t="s">
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+    </row>
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C94" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="37" t="s">
+      <c r="D94" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37" t="s">
+      <c r="E94" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-    </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="45" t="s">
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+    </row>
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B95" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C95" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="D95" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45" t="s">
+      <c r="E95" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-    </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="61"/>
-      <c r="C93" s="62" t="s">
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B97" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" t="s">
+        <v>167</v>
+      </c>
+      <c r="E97" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="61"/>
+      <c r="C98" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="27" t="str">
-        <f>M49</f>
+      <c r="D99" s="27" t="str">
+        <f>M51</f>
         <v>BC</v>
       </c>
-      <c r="E94" s="27" t="str">
-        <f>M48</f>
+      <c r="E99" s="27" t="str">
+        <f>M50</f>
         <v>HC</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="4" t="s">
+    <row r="100" spans="2:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="21" t="str">
-        <f>C63</f>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="21" t="str">
+        <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C101" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D101" s="21">
         <v>110</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="35"/>
-    </row>
-    <row r="97" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="37" t="str">
-        <f t="shared" ref="B97:B104" si="10">C64</f>
+      <c r="E101" s="21"/>
+      <c r="F101" s="35"/>
+    </row>
+    <row r="102" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="37" t="str">
+        <f t="shared" ref="B102:B111" si="11">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C102" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D102" s="37">
         <v>14</v>
       </c>
-      <c r="E97" s="37"/>
-      <c r="F97" s="39"/>
-    </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="39"/>
+    </row>
+    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="21" t="str">
+        <f t="shared" si="11"/>
         <v>ELE_NEW_BC_FBC</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C103" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D103" s="21">
         <v>106</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="37" t="str">
-        <f t="shared" si="10"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="37" t="str">
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_PC</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C104" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37">
+      <c r="D104" s="37"/>
+      <c r="E104" s="37">
         <v>94</v>
       </c>
-      <c r="F99" s="37"/>
-    </row>
-    <row r="100" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="F104" s="37"/>
+    </row>
+    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="21" t="str">
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C105" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21">
+      <c r="D105" s="21"/>
+      <c r="E105" s="21">
         <v>94</v>
       </c>
-      <c r="F100" s="21"/>
-    </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="37" t="str">
-        <f t="shared" si="10"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="37" t="str">
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C106" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37">
+      <c r="D106" s="37"/>
+      <c r="E106" s="37">
         <v>12</v>
       </c>
-      <c r="F101" s="37"/>
-    </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="F106" s="37"/>
+    </row>
+    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="21" t="str">
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C107" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21">
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="37" t="str">
-        <f t="shared" si="10"/>
+    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="37" t="str">
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C108" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37">
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="45" t="str">
-        <f t="shared" si="10"/>
+    <row r="109" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="45" t="str">
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="C109" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45">
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45">
         <v>56</v>
       </c>
     </row>
@@ -4625,26 +4917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4839,28 +5111,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4877,4 +5148,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A30AE23-28A1-4FA8-AABE-1B93978AA837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01D420-07C7-467C-91D6-8E00ECA87994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,7 +1527,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,14 +1655,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,10 +2102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X109"/>
+  <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2289,7 +2281,7 @@
         <v>BC</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>$M$55</f>
+        <f t="shared" ref="E7:E26" si="0">$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F7" s="21">
@@ -2326,11 +2318,11 @@
     </row>
     <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="0">C67</f>
+        <f t="shared" ref="B8:C8" si="1">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D8" s="30" t="str">
@@ -2338,7 +2330,7 @@
         <v>BC</v>
       </c>
       <c r="E8" s="30" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F8" s="58">
@@ -2357,7 +2349,7 @@
         <v>14600</v>
       </c>
       <c r="K8" s="57">
-        <f t="shared" ref="K8:K28" si="1">J8</f>
+        <f t="shared" ref="K8:K28" si="2">J8</f>
         <v>14600</v>
       </c>
       <c r="L8" s="40">
@@ -2375,11 +2367,11 @@
     </row>
     <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="2">C68</f>
+        <f t="shared" ref="B9:C9" si="3">C68</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Brown Coal Fluidzed Bed</v>
       </c>
       <c r="D9" s="28" t="str">
@@ -2387,7 +2379,7 @@
         <v>BC</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F9" s="21">
@@ -2406,7 +2398,7 @@
         <v>9200</v>
       </c>
       <c r="K9" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9200</v>
       </c>
       <c r="L9" s="36">
@@ -2424,11 +2416,11 @@
     </row>
     <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="3">C69</f>
+        <f t="shared" ref="B10:C10" si="4">C69</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Hard Coal Pulverized</v>
       </c>
       <c r="D10" s="30" t="str">
@@ -2436,7 +2428,7 @@
         <v>HC</v>
       </c>
       <c r="E10" s="30" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F10" s="37">
@@ -2455,7 +2447,7 @@
         <v>7400</v>
       </c>
       <c r="K10" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7400</v>
       </c>
       <c r="L10" s="40">
@@ -2473,11 +2465,11 @@
     </row>
     <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="4">C70</f>
+        <f t="shared" ref="B11:C11" si="5">C70</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Hard Coal Internal Gasification Combined Cycle</v>
       </c>
       <c r="D11" s="28" t="str">
@@ -2485,7 +2477,7 @@
         <v>HC</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F11" s="21">
@@ -2504,7 +2496,7 @@
         <v>10100</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10100</v>
       </c>
       <c r="L11" s="36">
@@ -2522,11 +2514,11 @@
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="37" t="str">
-        <f>C71</f>
+        <f t="shared" ref="B12:C25" si="6">C71</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f>D71</f>
+        <f t="shared" si="6"/>
         <v>Hard Coal Internal Gasification Combined Cycle + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D12" s="30" t="str">
@@ -2534,7 +2526,7 @@
         <v>HC</v>
       </c>
       <c r="E12" s="30" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F12" s="58">
@@ -2553,7 +2545,7 @@
         <v>14600</v>
       </c>
       <c r="K12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14600</v>
       </c>
       <c r="L12" s="40">
@@ -2571,11 +2563,11 @@
     </row>
     <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="str">
-        <f>C72</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f>D72</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Combined Cycle Gas Turbine</v>
       </c>
       <c r="D13" s="28" t="str">
@@ -2583,7 +2575,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E13" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F13" s="21">
@@ -2602,7 +2594,7 @@
         <v>3300</v>
       </c>
       <c r="K13" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3300</v>
       </c>
       <c r="L13" s="36">
@@ -2620,11 +2612,11 @@
     </row>
     <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37" t="str">
-        <f>C73</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f>D73</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Combined Cycle Gas Turbine + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D14" s="30" t="str">
@@ -2632,7 +2624,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E14" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F14" s="58">
@@ -2651,7 +2643,7 @@
         <v>6000</v>
       </c>
       <c r="K14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="L14" s="37">
@@ -2669,11 +2661,11 @@
     </row>
     <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="str">
-        <f>C74</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>D74</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Open Cycle Gas Turbine</v>
       </c>
       <c r="D15" s="28" t="str">
@@ -2681,7 +2673,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F15" s="21">
@@ -2700,7 +2692,7 @@
         <v>2200</v>
       </c>
       <c r="K15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
       <c r="L15" s="21">
@@ -2718,11 +2710,11 @@
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="37" t="str">
-        <f>C75</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
       </c>
       <c r="C16" s="37" t="str">
-        <f>D75</f>
+        <f t="shared" si="6"/>
         <v>Nuclear Pressurized Water Reactor</v>
       </c>
       <c r="D16" s="37" t="str">
@@ -2730,7 +2722,7 @@
         <v>URAN</v>
       </c>
       <c r="E16" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F16" s="60">
@@ -2749,7 +2741,7 @@
         <v>20200</v>
       </c>
       <c r="K16" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20200</v>
       </c>
       <c r="L16" s="37">
@@ -2767,11 +2759,11 @@
     </row>
     <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="str">
-        <f>C76</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>D76</f>
+        <f t="shared" si="6"/>
         <v>Nuclear Small Modular Reactor</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -2779,7 +2771,7 @@
         <v>URAN</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F17" s="60">
@@ -2815,11 +2807,11 @@
     </row>
     <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="37" t="str">
-        <f>C77</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
       </c>
       <c r="C18" s="37" t="str">
-        <f>D77</f>
+        <f t="shared" si="6"/>
         <v>Wind Onshore</v>
       </c>
       <c r="D18" s="30" t="str">
@@ -2827,7 +2819,7 @@
         <v>WIND-ON</v>
       </c>
       <c r="E18" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F18" s="37">
@@ -2846,7 +2838,7 @@
         <v>5800</v>
       </c>
       <c r="K18" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5800</v>
       </c>
       <c r="L18" s="37">
@@ -2864,11 +2856,11 @@
     </row>
     <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="str">
-        <f>C78</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
       </c>
       <c r="C19" s="21" t="str">
-        <f>D78</f>
+        <f t="shared" si="6"/>
         <v>Wind Offshore</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -2876,7 +2868,7 @@
         <v>WIND-OFF</v>
       </c>
       <c r="E19" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F19" s="58">
@@ -2895,7 +2887,7 @@
         <v>9400</v>
       </c>
       <c r="K19" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9400</v>
       </c>
       <c r="L19" s="21">
@@ -2913,11 +2905,11 @@
     </row>
     <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="37" t="str">
-        <f>C79</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
       </c>
       <c r="C20" s="37" t="str">
-        <f>D79</f>
+        <f t="shared" si="6"/>
         <v>Geothermal</v>
       </c>
       <c r="D20" s="37" t="str">
@@ -2925,7 +2917,7 @@
         <v>GEO</v>
       </c>
       <c r="E20" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F20" s="37">
@@ -2944,7 +2936,7 @@
         <v>31500</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31500</v>
       </c>
       <c r="L20" s="37">
@@ -2962,11 +2954,11 @@
     </row>
     <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="str">
-        <f>C80</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f>D80</f>
+        <f t="shared" si="6"/>
         <v>Photovoltaics Ground</v>
       </c>
       <c r="D21" s="28" t="str">
@@ -2974,7 +2966,7 @@
         <v>SOLAR</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F21" s="21">
@@ -2993,7 +2985,7 @@
         <v>3100</v>
       </c>
       <c r="K21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3100</v>
       </c>
       <c r="L21" s="21">
@@ -3011,11 +3003,11 @@
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="37" t="str">
-        <f>C81</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
       </c>
       <c r="C22" s="37" t="str">
-        <f>D81</f>
+        <f t="shared" si="6"/>
         <v>Photovoltaics Roof</v>
       </c>
       <c r="D22" s="30" t="str">
@@ -3023,7 +3015,7 @@
         <v>SOLAR</v>
       </c>
       <c r="E22" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F22" s="37">
@@ -3042,7 +3034,7 @@
         <v>4000</v>
       </c>
       <c r="K22" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="L22" s="37">
@@ -3060,11 +3052,11 @@
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="str">
-        <f>C82</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f>D82</f>
+        <f t="shared" si="6"/>
         <v>Biogas Agricultural</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -3072,7 +3064,7 @@
         <v>BIOG-AGR</v>
       </c>
       <c r="E23" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F23" s="21">
@@ -3091,7 +3083,7 @@
         <v>12100</v>
       </c>
       <c r="K23" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12100</v>
       </c>
       <c r="L23" s="21">
@@ -3109,11 +3101,11 @@
     </row>
     <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="str">
-        <f>C83</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
       </c>
       <c r="C24" s="37" t="str">
-        <f>D83</f>
+        <f t="shared" si="6"/>
         <v>Biogas Waste Water Treatment Plant</v>
       </c>
       <c r="D24" s="37" t="str">
@@ -3121,7 +3113,7 @@
         <v>BIOG-WWTP</v>
       </c>
       <c r="E24" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F24" s="37">
@@ -3140,7 +3132,7 @@
         <v>14100</v>
       </c>
       <c r="K24" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14100</v>
       </c>
       <c r="L24" s="37">
@@ -3158,11 +3150,11 @@
     </row>
     <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="str">
-        <f>C84</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
       </c>
       <c r="C25" s="21" t="str">
-        <f>D84</f>
+        <f t="shared" si="6"/>
         <v>Biogas Landfills</v>
       </c>
       <c r="D25" s="21" t="str">
@@ -3170,7 +3162,7 @@
         <v>BIOG_LFILL</v>
       </c>
       <c r="E25" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F25" s="21">
@@ -3189,7 +3181,7 @@
         <v>7200</v>
       </c>
       <c r="K25" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
       <c r="L25" s="21">
@@ -3207,19 +3199,19 @@
     </row>
     <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="str">
-        <f t="shared" ref="B26:C28" si="5">C85</f>
+        <f t="shared" ref="B26:C28" si="7">C85</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Biomass</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" ref="D26:D28" si="6">C56</f>
+        <f t="shared" ref="D26:D28" si="8">C56</f>
         <v>BIOM</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F26" s="3">
@@ -3238,7 +3230,7 @@
         <v>11500</v>
       </c>
       <c r="K26" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="L26" s="3">
@@ -3256,22 +3248,22 @@
     </row>
     <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ELE_NEW_COCONUT</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Coconut Oil</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>COCONUT</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ref="E27:E28" si="7">$M$55</f>
+        <f t="shared" ref="E27:E28" si="9">$M$55</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="37">
         <v>2030</v>
       </c>
       <c r="G27" s="38">
@@ -3287,7 +3279,7 @@
         <v>11500</v>
       </c>
       <c r="K27" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="L27" s="3">
@@ -3296,7 +3288,7 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="37">
         <v>30</v>
       </c>
       <c r="O27" s="42">
@@ -3305,38 +3297,38 @@
     </row>
     <row r="28" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ELE_NEW_CANOLA</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Canola oil</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>CANOLA</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="37">
         <v>2030</v>
       </c>
-      <c r="G28" s="69">
+      <c r="G28" s="65">
         <v>0.4</v>
       </c>
       <c r="H28">
         <v>31.536000000000001</v>
       </c>
-      <c r="I28" s="69">
+      <c r="I28" s="65">
         <v>0.8</v>
       </c>
       <c r="J28" s="59">
         <v>11500</v>
       </c>
       <c r="K28" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="L28" s="3">
@@ -3345,7 +3337,7 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="37">
         <v>30</v>
       </c>
       <c r="O28" s="42">
@@ -3431,11 +3423,11 @@
     </row>
     <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="55" t="str">
-        <f t="shared" ref="B36:C40" si="8">C90</f>
+        <f t="shared" ref="B36:C40" si="10">C90</f>
         <v>IMP_URAN</v>
       </c>
       <c r="C36" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Nuclear Fuel Import</v>
       </c>
       <c r="D36" s="37" t="str">
@@ -3450,15 +3442,15 @@
     </row>
     <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_GEO</v>
       </c>
       <c r="C37" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Geothermal Mining</v>
       </c>
       <c r="D37" s="21" t="str">
-        <f t="shared" ref="D37:D43" si="9">C52</f>
+        <f t="shared" ref="D37:D41" si="11">C52</f>
         <v>GEO</v>
       </c>
       <c r="E37" s="21"/>
@@ -3469,15 +3461,15 @@
     </row>
     <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_BIOG-AGR</v>
       </c>
       <c r="C38" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOG-AGR</v>
       </c>
       <c r="E38" s="37"/>
@@ -3488,15 +3480,15 @@
     </row>
     <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_BIOG-WWTP</v>
       </c>
       <c r="C39" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D39" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E39" s="21"/>
@@ -3507,15 +3499,15 @@
     </row>
     <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>MIN_BIOG_LFILL</v>
       </c>
       <c r="C40" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D40" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOG_LFILL</v>
       </c>
       <c r="E40" s="37"/>
@@ -3534,7 +3526,7 @@
         <v>Biomass Supply</v>
       </c>
       <c r="D41" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>BIOM</v>
       </c>
       <c r="E41" s="45"/>
@@ -3549,7 +3541,7 @@
         <v>MIN_CANOLA</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:C43" si="10">D96</f>
+        <f t="shared" ref="C42:C43" si="12">D96</f>
         <v>Canola oil mining</v>
       </c>
       <c r="D42" t="s">
@@ -3565,17 +3557,17 @@
         <v>IMP_COCONUT</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Coconut import</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65">
+      <c r="E43" s="21"/>
+      <c r="F43" s="21">
         <v>50</v>
       </c>
-      <c r="G43" s="65"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="45" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B45" s="9" t="s">
@@ -3958,22 +3950,22 @@
       <c r="S56" s="16"/>
     </row>
     <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="E57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
       <c r="L57" s="14"/>
       <c r="M57" s="15"/>
       <c r="N57" s="14"/>
@@ -3984,16 +3976,16 @@
       <c r="S57" s="16"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="67" t="s">
+      <c r="D58" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4726,7 +4718,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C97" t="s">
@@ -4735,175 +4727,185 @@
       <c r="D97" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="65" t="s">
+      <c r="E97" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="61"/>
-      <c r="C98" s="62" t="s">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="G98" s="21"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="G99" s="21"/>
+    </row>
+    <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="61"/>
+      <c r="C100" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-    </row>
-    <row r="99" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="2" t="s">
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="27" t="str">
+      <c r="D101" s="27" t="str">
         <f>M51</f>
         <v>BC</v>
       </c>
-      <c r="E99" s="27" t="str">
+      <c r="E101" s="27" t="str">
         <f>M50</f>
         <v>HC</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="4" t="s">
+    <row r="102" spans="2:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="21" t="str">
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C103" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D103" s="21">
         <v>110</v>
       </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="35"/>
-    </row>
-    <row r="102" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="37" t="str">
-        <f t="shared" ref="B102:B111" si="11">C67</f>
-        <v>ELE_NEW_BC_PL_CCS</v>
-      </c>
-      <c r="C102" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="37">
-        <v>14</v>
-      </c>
-      <c r="E102" s="37"/>
-      <c r="F102" s="39"/>
-    </row>
-    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>ELE_NEW_BC_FBC</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" s="21">
-        <v>106</v>
-      </c>
       <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
+      <c r="F103" s="35"/>
     </row>
     <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>ELE_NEW_HC_PC</v>
-      </c>
-      <c r="C104" s="37" t="s">
+        <f t="shared" ref="B104:B111" si="13">C67</f>
+        <v>ELE_NEW_BC_PL_CCS</v>
+      </c>
+      <c r="C104" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37">
-        <v>94</v>
-      </c>
-      <c r="F104" s="37"/>
+      <c r="D104" s="37">
+        <v>14</v>
+      </c>
+      <c r="E104" s="37"/>
+      <c r="F104" s="39"/>
     </row>
     <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>ELE_NEW_HC_IGCC</v>
+        <f t="shared" si="13"/>
+        <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21">
-        <v>94</v>
-      </c>
+      <c r="D105" s="21">
+        <v>106</v>
+      </c>
+      <c r="E105" s="21"/>
       <c r="F105" s="21"/>
     </row>
     <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>ELE_NEW_HC_IGCC_CCS</v>
+        <f t="shared" si="13"/>
+        <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D106" s="37"/>
       <c r="E106" s="37">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F106" s="37"/>
     </row>
     <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>ELE_NEW_NAT-GAS_CCGT</v>
+        <f t="shared" si="13"/>
+        <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21">
-        <v>56</v>
-      </c>
+      <c r="E107" s="21">
+        <v>94</v>
+      </c>
+      <c r="F107" s="21"/>
     </row>
     <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
+        <f t="shared" si="13"/>
+        <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37">
+      <c r="E108" s="37">
+        <v>12</v>
+      </c>
+      <c r="F108" s="37"/>
+    </row>
+    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>ELE_NEW_NAT-GAS_CCGT</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="45" t="str">
-        <f t="shared" si="11"/>
+    <row r="111" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="45" t="str">
+        <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
-      <c r="C109" s="45" t="s">
+      <c r="C111" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45">
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45">
         <v>56</v>
       </c>
     </row>
@@ -4917,6 +4919,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5111,15 +5122,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5132,6 +5134,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5150,14 +5160,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
